--- a/pred_ohlcv/54_21/2020-01-14 FNB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 FNB ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-5849655.1344</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-5849655.1344</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-5849483.5903</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-5849483.5903</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-5849829.5903</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-5849483.2352</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-5840254.0583</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-5861372.2571</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-5854680.8675</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-5854680.8675</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-5855110.8675</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-5854938.3687</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-5854938.3687</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-5856238.5198</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-5857349.5198</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-5857349.5198</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-5857349.5198</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-5964906.210299999</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-5964462.210299999</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-5964462.210299999</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-5964462.210299999</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-5964462.210299999</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-5961962.210299999</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-5961962.210299999</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-5920919.1772</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-5885402.5865</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-5885402.5865</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-5882902.5865</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-5839745.8941</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-5839745.8941</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-6290760.736500001</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-6290760.736500001</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-6290760.736500001</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-6276310.541300001</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-6249872.736500001</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-6520815.4246</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-6520315.4246</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-6520537.4246</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-6520537.4246</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-6520537.4246</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-6547589.53</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-6772911.6747</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-6770005.250100001</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-6778050.848900001</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-6778050.848900001</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-6776550.848900001</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-6965512.671300001</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-6965512.671300001</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-6965335.671300001</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-6965335.671300001</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-6965335.671300001</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-6861958.7071</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-6861781.7071</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-6862225.7071</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-6867225.7071</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-6867048.7071</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-6869441.7037</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-6923584.6929</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-6924205.6929</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-6924205.6929</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-6924649.6929</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-6924205.6929</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-6924205.6929</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-6920653.6929</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-6911650.6929</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-6911650.6929</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-6911650.6929</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-6911850.6929</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-7046535.8621</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-7046091.8621</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-7045447.8621</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-7045447.8621</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-7045647.8621</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-7046091.9872</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-7416091.9872</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-7407869.9872</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-7434747.4045</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-7434747.4045</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-7015741.587100002</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-6956875.169800002</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-6956875.169800002</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-7036852.766900002</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-16521478.75389216</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-16911673.01979217</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-16851451.01979217</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-16851451.01979217</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-25537815.30229217</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-26390411.16299217</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>63457813.59160785</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>63457813.59160785</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>63457813.59160785</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>62809893.92080785</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>62564762.40860784</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>62565206.40860784</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>62565206.40860784</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>62535835.92180784</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>62065728.36310784</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>62066616.36310784</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>61767948.36310784</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>61506999.00020784</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>61895216.67400784</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>62162481.44450784</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>29142285.12118161</v>
       </c>
       <c r="H334">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>29142485.12118161</v>
       </c>
       <c r="H335">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>29142197.49288161</v>
       </c>
       <c r="H336">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>29142397.49288161</v>
       </c>
       <c r="H337">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>28415455.36128161</v>
       </c>
       <c r="H341">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>29114590.28978161</v>
       </c>
       <c r="H384">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>28945242.25928161</v>
       </c>
       <c r="H385">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>28426609.21418161</v>
       </c>
       <c r="H400">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>28177310.07253866</v>
       </c>
       <c r="H432">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>28249732.38703866</v>
       </c>
       <c r="H433">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>28076007.15603866</v>
       </c>
       <c r="H438">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>21995833.89233866</v>
       </c>
       <c r="H444">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>22283286.55243865</v>
       </c>
       <c r="H445">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>22192842.55243865</v>
       </c>
       <c r="H446">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>22185207.02163865</v>
       </c>
       <c r="H447">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>22186095.02163865</v>
       </c>
       <c r="H448">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>22196550.66933865</v>
       </c>
       <c r="H449">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>22189746.70433865</v>
       </c>
       <c r="H450">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>22189746.70433865</v>
       </c>
       <c r="H451">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>22189746.70433865</v>
       </c>
       <c r="H452">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>22221078.70433865</v>
       </c>
       <c r="H453">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>22615262.82133865</v>
       </c>
       <c r="H454">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>22616762.82133865</v>
       </c>
       <c r="H455">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>23081817.45803865</v>
       </c>
       <c r="H456">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>23173343.53583866</v>
       </c>
       <c r="H470">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>23173343.53583866</v>
       </c>
       <c r="H471">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>23290186.82703866</v>
       </c>
       <c r="H472">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>23340034.47903866</v>
       </c>
       <c r="H473">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>21104070.4092205</v>
       </c>
       <c r="H477">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>20432000.2980205</v>
       </c>
       <c r="H478">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>21634638.8727205</v>
       </c>
       <c r="H479">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>21640624.7052205</v>
       </c>
       <c r="H481">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>21834630.2181205</v>
       </c>
       <c r="H482">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>23355629.6719205</v>
       </c>
       <c r="H497">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>23355629.6719205</v>
       </c>
       <c r="H498">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>23355629.6719205</v>
       </c>
       <c r="H499">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>23229828.0259205</v>
       </c>
       <c r="H500">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>23229828.0259205</v>
       </c>
       <c r="H501">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>23229606.0259205</v>
       </c>
       <c r="H502">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>23229606.0259205</v>
       </c>
       <c r="H503">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>22882871.70242861</v>
       </c>
       <c r="H504">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>22882871.70242861</v>
       </c>
       <c r="H505">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>22702157.03082861</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>22490546.98382861</v>
       </c>
       <c r="H517">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>22342853.48702861</v>
       </c>
       <c r="H520">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-14 FNB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 FNB ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-5849655.1344</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-5849655.1344</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-5849483.5903</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-5849483.5903</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-5849829.5903</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-5849483.2352</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-5840254.0583</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-5861372.2571</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-5854680.8675</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-5854680.8675</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-5855110.8675</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-5854938.3687</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-5854938.3687</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-5856238.5198</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-5857349.5198</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-5920919.1772</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-5885402.5865</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-5885402.5865</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-5882902.5865</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-5839745.8941</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-5839745.8941</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-6290760.736500001</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-6290760.736500001</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-6290760.736500001</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-6276310.541300001</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-6249872.736500001</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-6520815.4246</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-6520315.4246</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-6520537.4246</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-6520537.4246</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-6520537.4246</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-6547589.53</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-6772911.6747</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-6778050.848900001</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-6778050.848900001</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-6776550.848900001</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-6965512.671300001</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-6965335.671300001</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-6861958.7071</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-6861781.7071</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-6862225.7071</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-6867225.7071</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-6867048.7071</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-6869441.7037</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-6923584.6929</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-6924205.6929</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-6924205.6929</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-6924649.6929</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-6924205.6929</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-6924205.6929</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-6920653.6929</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-6911650.6929</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-6911650.6929</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-6911650.6929</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-6911850.6929</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-7046535.8621</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-7046091.8621</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-7045447.8621</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-7045447.8621</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-7045647.8621</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-7046091.9872</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-7416091.9872</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-7407869.9872</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-7434747.4045</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-7434747.4045</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-7434747.4045</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-7434747.4045</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-8398749.354900001</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-8398749.354900001</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-8398749.354900001</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-8398574.354900001</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-8398796.354900001</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-8344066.678800001</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-8970500.404900001</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-8970500.404900001</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-8906651.198400002</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-8024814.098100002</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-8053280.283300002</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-8052319.154500002</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-7015741.587100002</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-7015741.587100002</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-6956875.169800002</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-6956875.169800002</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-7036852.766900002</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-6945161.568500002</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-6921640.355500002</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-7174833.290000003</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-7175008.302000003</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-7142989.171800003</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-8241678.07736517</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-20123783.95839216</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-20123783.95839216</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-20123783.95839216</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-20123783.95839216</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-19118433.39049216</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-16520368.75389216</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-16851451.01979217</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-25537815.30229217</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-26390411.16299217</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>63428035.59160785</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>63457813.59160785</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>63457813.59160785</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>63457813.59160785</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>62809893.92080785</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>62564762.40860784</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>62565206.40860784</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>62565206.40860784</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>62535835.92180784</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>62162481.44450784</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>29142485.12118161</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>29142197.49288161</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>28365455.36128161</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>28415455.36128161</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>28415018.99748161</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>30225311.62558161</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>29114590.28978161</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>28945242.25928161</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>28950242.25928161</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>28544003.45678161</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>28426109.21418161</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>28426609.21418161</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>28591649.59488161</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>28404400.30258161</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>28407523.73828161</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>28285569.70998161</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>28289121.70998161</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>28289121.70998161</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>28199121.70998161</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>28199121.70998161</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>28199121.70998161</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>28422275.13418161</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>28324789.74908161</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>28324789.74908161</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>28424777.20003866</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>28426777.20003866</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>28177310.07253866</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>28177310.07253866</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>28249732.38703866</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>28254732.38703866</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>28213600.30523866</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>28213600.30523866</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>28074055.94173866</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>28076007.15603866</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>27207611.09873866</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>25402675.89233866</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>25119871.89233866</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>25119871.89233866</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>21995833.89233866</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>22283286.55243865</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>22192842.55243865</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>22185207.02163865</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>22186095.02163865</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>22196550.66933865</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>22189746.70433865</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>22189746.70433865</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>22189746.70433865</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>22221078.70433865</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>22615262.82133865</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>22616762.82133865</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>23081817.45803865</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>23081817.45803865</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>23070666.86163865</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>23070666.86163865</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>22908975.70483866</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>22908975.70483866</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>23558913.76193866</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>23558913.76193866</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>23512295.34233866</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>23343041.43913866</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>23173343.53583866</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>23173343.53583866</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>23290186.82703866</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>23340034.47903866</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>23338407.4482205</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>20303323.0897205</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>21104301.5182205</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>21104070.4092205</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>20432000.2980205</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>21634638.8727205</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>21640624.7052205</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>21834630.2181205</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>22068303.1730205</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>22068303.1730205</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>22068303.1730205</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>22166606.0108205</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>22166606.0108205</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>22250031.9372205</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>22250031.9372205</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>22435320.80952049</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>23591478.2821205</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>23591478.2821205</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>23355629.6719205</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>23355629.6719205</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>23355629.6719205</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>23355629.6719205</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>23355629.6719205</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>23355629.6719205</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>23355629.6719205</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>23229828.0259205</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>23229828.0259205</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>23229606.0259205</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>23229606.0259205</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>22882871.70242861</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>22882871.70242861</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>22490546.98382861</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>22342853.48702861</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521" spans="1:8">
